--- a/Data Mining/Data Mining Assignments/DM Assignment5/Q13.xlsx
+++ b/Data Mining/Data Mining Assignments/DM Assignment5/Q13.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BASHA\Downloads\DM_Assignment5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Second Year\DataScience_2019501039\Data Mining\Data Mining Assignments\DM Assignment5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -321,7 +321,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17119,7 +17119,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
